--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08518365525853214</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.672525845828889</v>
+        <v>-1.669844504255753</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2013255885793649</v>
+        <v>-0.2056163647040306</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3099030015858076</v>
+        <v>-0.3146376511026801</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08217382953808651</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.810797916568229</v>
+        <v>-1.811271696323741</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1874584801207058</v>
+        <v>-0.1910629839084844</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3116863652502413</v>
+        <v>-0.3168444259107437</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08506484567850427</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.987461100685655</v>
+        <v>-1.99069885801817</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2606802756244925</v>
+        <v>-0.2648136498370282</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3425198258174005</v>
+        <v>-0.3482036088644173</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09499952245496647</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.016370322877024</v>
+        <v>-2.019102820071602</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2351496854769954</v>
+        <v>-0.2377830194669314</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3473835449022196</v>
+        <v>-0.3528548353678608</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1088101745764851</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.953612606491644</v>
+        <v>-1.957778248096166</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1892686021102016</v>
+        <v>-0.190008391097213</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3613765748905827</v>
+        <v>-0.3664354723464431</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1265970942975894</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.70813015835271</v>
+        <v>-1.711507216377461</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1631131263715481</v>
+        <v>-0.1656646113671765</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3781367304941924</v>
+        <v>-0.3844768795147916</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1481377967504766</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.482854967693034</v>
+        <v>-1.490462989115841</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04486336586471263</v>
+        <v>-0.04667506187332972</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3613372244125502</v>
+        <v>-0.3675121014254128</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1679924960219602</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.19718308932993</v>
+        <v>-1.207746331652979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004257048853717936</v>
+        <v>0.001974721127831938</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3144802491905501</v>
+        <v>-0.3189551855524079</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1757810514387005</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.011434666844357</v>
+        <v>-1.026101377016637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1467986464595869</v>
+        <v>0.1485206233782899</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3074050332403034</v>
+        <v>-0.3130715020769859</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1603902314980915</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7773803845356267</v>
+        <v>-0.7964968467638236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707410513136917</v>
+        <v>0.1740228811816036</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2929523896685206</v>
+        <v>-0.2989572726162826</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1152554028748403</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5474586894298713</v>
+        <v>-0.5714734991635559</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1621217226054491</v>
+        <v>0.168187992298942</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2460843963126713</v>
+        <v>-0.2520153003617323</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03575869516648558</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3349487938439442</v>
+        <v>-0.3670084153065966</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01457608993264479</v>
+        <v>-0.008920639229811423</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1951050650119846</v>
+        <v>-0.2009352318372823</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07732724635537601</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02472536522679163</v>
+        <v>-0.05880130518383022</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1335420291396721</v>
+        <v>-0.1265958827573721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08607118646036463</v>
+        <v>-0.09120878487229007</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2190851001110837</v>
       </c>
       <c r="E15" t="n">
-        <v>0.372971028018404</v>
+        <v>0.3350954059025456</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4078809698294116</v>
+        <v>-0.4031321541404474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04178166470552633</v>
+        <v>0.03926323411144523</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3791870568246926</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7333395578019539</v>
+        <v>0.6915808305138467</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6130874166925036</v>
+        <v>-0.6070809597256202</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08364899931300333</v>
+        <v>0.07919609921884369</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5430082295816654</v>
       </c>
       <c r="E17" t="n">
-        <v>1.226802422425326</v>
+        <v>1.184022156727495</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7306068323270555</v>
+        <v>-0.7181295827525049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.145526839009576</v>
+        <v>0.1414296672368303</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7093089288847212</v>
       </c>
       <c r="E18" t="n">
-        <v>1.580881171800158</v>
+        <v>1.537845915004676</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9248612541441372</v>
+        <v>-0.9108241516203778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2003121485455677</v>
+        <v>0.1935328481901256</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8790721122970877</v>
       </c>
       <c r="E19" t="n">
-        <v>1.946906726305663</v>
+        <v>1.904091832187163</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.034959169621756</v>
+        <v>-1.016269266575432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2658700449477414</v>
+        <v>0.2581006865650012</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.049684364129414</v>
       </c>
       <c r="E20" t="n">
-        <v>2.261498057984425</v>
+        <v>2.216117512698205</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.252514583501013</v>
+        <v>-1.232135757937533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3358540831190125</v>
+        <v>0.327281974984409</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.212785991411213</v>
       </c>
       <c r="E21" t="n">
-        <v>2.522829304655736</v>
+        <v>2.478042164578246</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.288755586759401</v>
+        <v>-1.262671728890766</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4608579596753493</v>
+        <v>0.4535576589907567</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.360463988808051</v>
       </c>
       <c r="E22" t="n">
-        <v>2.744666837554491</v>
+        <v>2.701049193684127</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.401746549381971</v>
+        <v>-1.372186470283944</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4635101818947409</v>
+        <v>0.4531767463634019</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.492935474293553</v>
       </c>
       <c r="E23" t="n">
-        <v>2.823333165198856</v>
+        <v>2.776389618925184</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.511923165815655</v>
+        <v>-1.481039336636614</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5625364468731311</v>
+        <v>0.5510162009243313</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.609785259069309</v>
       </c>
       <c r="E24" t="n">
-        <v>2.947373742052957</v>
+        <v>2.902690487237473</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.654004362828543</v>
+        <v>-1.625742062496029</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6030454029789256</v>
+        <v>0.5913095164105077</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.710520364934171</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957101180222595</v>
+        <v>2.912399037177656</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.606964014378912</v>
+        <v>-1.573585364892609</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6573112862048881</v>
+        <v>0.6449756983512546</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.793065700477527</v>
       </c>
       <c r="E26" t="n">
-        <v>2.94291139784407</v>
+        <v>2.898446931686447</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.525430610905097</v>
+        <v>-1.487676975271139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5995888569885492</v>
+        <v>0.5848765002617518</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.857267521224286</v>
       </c>
       <c r="E27" t="n">
-        <v>3.012322493055187</v>
+        <v>2.972493513209795</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.568149489857197</v>
+        <v>-1.531862840044292</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6285634009734523</v>
+        <v>0.615239329111642</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.90492967535638</v>
       </c>
       <c r="E28" t="n">
-        <v>2.951952563676821</v>
+        <v>2.91296096200396</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.521943371541855</v>
+        <v>-1.485684267063572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6460554754684669</v>
+        <v>0.6335561896262181</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.936717766194277</v>
       </c>
       <c r="E29" t="n">
-        <v>2.819716069258107</v>
+        <v>2.777551245036705</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.67330262426525</v>
+        <v>-1.643825181171092</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6159492117353487</v>
+        <v>0.6029021672388872</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.954136021857506</v>
       </c>
       <c r="E30" t="n">
-        <v>2.774947817410073</v>
+        <v>2.736335554345446</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.657551414918394</v>
+        <v>-1.629655074031582</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5680439397785622</v>
+        <v>0.5539297103178589</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.957570396880696</v>
       </c>
       <c r="E31" t="n">
-        <v>2.659852391222324</v>
+        <v>2.622641005175655</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.694051344322236</v>
+        <v>-1.670419808244588</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5596559918811508</v>
+        <v>0.5482396311943569</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.947110715670284</v>
       </c>
       <c r="E32" t="n">
-        <v>2.618841323016835</v>
+        <v>2.583715512305889</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.737894072926945</v>
+        <v>-1.71730275478209</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5508635210695652</v>
+        <v>0.5396690970788747</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.922960396472159</v>
       </c>
       <c r="E33" t="n">
-        <v>2.442910057790814</v>
+        <v>2.408073866598187</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.729044937426993</v>
+        <v>-1.710328276055606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5465617268110504</v>
+        <v>0.5355908135355846</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.884821781032931</v>
       </c>
       <c r="E34" t="n">
-        <v>2.270378673866803</v>
+        <v>2.234550850627757</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.719171115479074</v>
+        <v>-1.700692130995004</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4867049276662279</v>
+        <v>0.4771474835616901</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.833516047427255</v>
       </c>
       <c r="E35" t="n">
-        <v>2.116568673371543</v>
+        <v>2.081460176870931</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.757380429648648</v>
+        <v>-1.742334380868135</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4241423896518894</v>
+        <v>0.4146305921018694</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.771218526184473</v>
       </c>
       <c r="E36" t="n">
-        <v>1.965160626055387</v>
+        <v>1.93224788622899</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.626644762462095</v>
+        <v>-1.607437007124862</v>
       </c>
       <c r="G36" t="n">
-        <v>0.425836034226409</v>
+        <v>0.4177581680958938</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.699369937435972</v>
       </c>
       <c r="E37" t="n">
-        <v>1.765557687264125</v>
+        <v>1.731535263957211</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.612314105372213</v>
+        <v>-1.592660115614092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3457483673155087</v>
+        <v>0.334527184999756</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.620570131327083</v>
       </c>
       <c r="E38" t="n">
-        <v>1.646813684753202</v>
+        <v>1.613246152972343</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.510290907986866</v>
+        <v>-1.489487884270196</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2982853947318077</v>
+        <v>0.2877882612118534</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.536370604618165</v>
       </c>
       <c r="E39" t="n">
-        <v>1.473994255329993</v>
+        <v>1.440418853453528</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.472043817358381</v>
+        <v>-1.450415220612588</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2826947353353244</v>
+        <v>0.2735559803170526</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.447238556252704</v>
       </c>
       <c r="E40" t="n">
-        <v>1.244368475819042</v>
+        <v>1.20957478314269</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.540833962026145</v>
+        <v>-1.525181915883931</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3031617059695972</v>
+        <v>0.296601194272016</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.353531754563796</v>
       </c>
       <c r="E41" t="n">
-        <v>1.15993494211423</v>
+        <v>1.127891060842791</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.480821334988314</v>
+        <v>-1.464484590528334</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2042078458707869</v>
+        <v>0.1970932794425078</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.254693734471375</v>
       </c>
       <c r="E42" t="n">
-        <v>1.021969018093982</v>
+        <v>0.9925175463153252</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.365766833297719</v>
+        <v>-1.345753180170381</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1639617509582496</v>
+        <v>0.1573949431841832</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.151465482410313</v>
       </c>
       <c r="E43" t="n">
-        <v>0.93358941845207</v>
+        <v>0.9063557396153256</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.301844342762577</v>
+        <v>-1.282930141991467</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1230592900721299</v>
+        <v>0.1169048753078443</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.044279543101278</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7624777997754723</v>
+        <v>0.7348364499863109</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.228862585174788</v>
+        <v>-1.208903235707135</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1076008482818359</v>
+        <v>0.1014920800720679</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9354778323349614</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6034735361799194</v>
+        <v>0.5764177215038818</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.194401797542592</v>
+        <v>-1.178542767885927</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09218333098869566</v>
+        <v>0.08739988687906286</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8280368817665752</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4324752468800552</v>
+        <v>0.4050967582841511</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.057581759442651</v>
+        <v>-1.037619261936755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01792740492221441</v>
+        <v>0.01286063737074749</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7242600804424997</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3532296801990508</v>
+        <v>0.3292510729051562</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.0750431405648</v>
+        <v>-1.060064774606502</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02107206684625273</v>
+        <v>-0.02613253832123444</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6273506461828834</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2177208000271533</v>
+        <v>0.1943497641140807</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.95076173878514</v>
+        <v>-0.9316901361019003</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01044586375835179</v>
+        <v>-0.01324132171778181</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5383179277526596</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2120795154964117</v>
+        <v>0.192168173611958</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9220272327162353</v>
+        <v>-0.9032704338572557</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.08958911919647167</v>
+        <v>-0.09545548846155934</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4583456273191813</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0350873613826345</v>
+        <v>0.01292832019296342</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8631345202832095</v>
+        <v>-0.8438220926744107</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.09849649340391227</v>
+        <v>-0.1027416229740602</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.38565923386221</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02582583287290126</v>
+        <v>0.007398791019834108</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9524278380250368</v>
+        <v>-0.9386897991343245</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1411429674764331</v>
+        <v>-0.1462742698118733</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3178026351391835</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.02634817894085264</v>
+        <v>-0.04294148851760449</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9147922538251767</v>
+        <v>-0.9001696161882934</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1503840337375894</v>
+        <v>-0.1543694501527228</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2527085139150361</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.09279854418480378</v>
+        <v>-0.1084002217151362</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8701633026693777</v>
+        <v>-0.8553446996518924</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1870838635698363</v>
+        <v>-0.190987430990662</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1873414055332654</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.19577717117678</v>
+        <v>-0.2122099308031591</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8753843240947321</v>
+        <v>-0.861325972312835</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2374021068395767</v>
+        <v>-0.2419463000427717</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1212615611565128</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2780259663412261</v>
+        <v>-0.294603535726765</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.857420830872888</v>
+        <v>-0.8427124091938937</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.230122268403561</v>
+        <v>-0.2314822209243648</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05531838374788531</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3122105136176345</v>
+        <v>-0.3266033444628079</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8432326225134836</v>
+        <v>-0.8279725071324734</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2337440864016739</v>
+        <v>-0.2351811658594214</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.00854548909298064</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3676395969742381</v>
+        <v>-0.3822134400183612</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8442974464490435</v>
+        <v>-0.8287406284636681</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3452113985148247</v>
+        <v>-0.349694204972289</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06943403244796485</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3889817222399542</v>
+        <v>-0.4020618211379629</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7508927907623787</v>
+        <v>-0.7329521208177935</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.354808193097395</v>
+        <v>-0.35900138003654</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1275158025998505</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5016988055354178</v>
+        <v>-0.5157784065754524</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7485097258127295</v>
+        <v>-0.7299158379328045</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.407427652322477</v>
+        <v>-0.4121985042791393</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1823427514544542</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5195859588298788</v>
+        <v>-0.5327620728942868</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7385949793676565</v>
+        <v>-0.7195682362293737</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4106433733872943</v>
+        <v>-0.4139944600965434</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2344882526923845</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5359400175001929</v>
+        <v>-0.5457792110274435</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.750862884399074</v>
+        <v>-0.7313072708360343</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4514010245142543</v>
+        <v>-0.4552148728451658</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2832210619852578</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6425200002417051</v>
+        <v>-0.654595874940324</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7912002724206467</v>
+        <v>-0.7714526285248083</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4845892176868793</v>
+        <v>-0.4887572203200835</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3278423530334521</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7225258181582978</v>
+        <v>-0.7341782817132867</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8057756894838911</v>
+        <v>-0.7857494442035825</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5434701249764954</v>
+        <v>-0.5490248384555655</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3681891942296954</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7512437970264287</v>
+        <v>-0.7621816559003473</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8526027583425866</v>
+        <v>-0.833956140822098</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5371173838029258</v>
+        <v>-0.5417780544210972</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4031951798234671</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8081949568733303</v>
+        <v>-0.8199576017668103</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8656143874088187</v>
+        <v>-0.8468379133108228</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5745255222397579</v>
+        <v>-0.5795434951984646</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4327593971142459</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8358166314234754</v>
+        <v>-0.8479594019347495</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9684009840679962</v>
+        <v>-0.9517494357837563</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6552884433536963</v>
+        <v>-0.6638180529720247</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4572218657233538</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9621001855254295</v>
+        <v>-0.9760318287680619</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9334514634986357</v>
+        <v>-0.9154753781238213</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6552695551242407</v>
+        <v>-0.6627902184858153</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4777180702849154</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.011647946435293</v>
+        <v>-1.024639113252948</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.016042607821965</v>
+        <v>-0.9993336078397973</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7146478524561878</v>
+        <v>-0.7239487314439536</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4945640152051054</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.041666065097619</v>
+        <v>-1.056384717900901</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9824270684579066</v>
+        <v>-0.9649365679820134</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7438411850989517</v>
+        <v>-0.7534789041786758</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5071186382640837</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.188134053401572</v>
+        <v>-1.207869892154001</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9795749458101098</v>
+        <v>-0.9620081054068335</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7653769147165876</v>
+        <v>-0.7753782322133322</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5155196917041335</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.191696058673076</v>
+        <v>-1.211885214932439</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.021271499342926</v>
+        <v>-1.003946270874769</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7944978424797717</v>
+        <v>-0.8048249819346255</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.519639840006521</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.168177064962601</v>
+        <v>-1.189364936354429</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.108822377917473</v>
+        <v>-1.093363149117619</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.758060873840782</v>
+        <v>-0.7681015418155591</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5192487301435483</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.124669602430729</v>
+        <v>-1.146377687142147</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.17425041774214</v>
+        <v>-1.161799926492651</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7484656532773331</v>
+        <v>-0.7572707162418891</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5135078910161938</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.125576237444598</v>
+        <v>-1.149029122351978</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.168520988140605</v>
+        <v>-1.155304736588604</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7534930703507675</v>
+        <v>-0.7647299928577331</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5011233556520454</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.048349350286661</v>
+        <v>-1.071988756459916</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.199875449036915</v>
+        <v>-1.185259894486077</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7670091725453765</v>
+        <v>-0.7790818992057528</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4816436097879997</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9574166916299994</v>
+        <v>-0.9820744881747353</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.280009549511893</v>
+        <v>-1.267825067493905</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7113235240720007</v>
+        <v>-0.7217986213242569</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4555344177210905</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.847037813739228</v>
+        <v>-0.8708031414421864</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.22948196169902</v>
+        <v>-1.215924147997697</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.720328487464962</v>
+        <v>-0.7331819276095034</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4227958265539628</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7551158840648284</v>
+        <v>-0.7798484465178261</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.231259816296529</v>
+        <v>-1.217951484625932</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6805152478107824</v>
+        <v>-0.69313415910625</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3840532535800716</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6333198584777026</v>
+        <v>-0.6587229530763744</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.294473211217525</v>
+        <v>-1.282283220132612</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6568357041499349</v>
+        <v>-0.6697883074991182</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3393933618123787</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4576546024831819</v>
+        <v>-0.4845215348646633</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.211442915559354</v>
+        <v>-1.197665526190609</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.67236812483893</v>
+        <v>-0.68711983204376</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2890000152577057</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2369771216768255</v>
+        <v>-0.2602190880219514</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.224538754648575</v>
+        <v>-1.212222842033958</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6061271041381119</v>
+        <v>-0.6181069636703315</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2333900826119107</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.06953454157197961</v>
+        <v>-0.0919218155342393</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.233846716722387</v>
+        <v>-1.220142519242782</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4759273904623616</v>
+        <v>-0.4849040215111394</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1730755421599316</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1204306781395578</v>
+        <v>0.09827793302637192</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.150123065641282</v>
+        <v>-1.136006475151897</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4347400321152865</v>
+        <v>-0.4425235566701184</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1108759608127412</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2699310142806971</v>
+        <v>0.2467756189872427</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.123984117103402</v>
+        <v>-1.109115932483596</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3432926692059591</v>
+        <v>-0.3516239524150037</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04969397597037507</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4760047456796258</v>
+        <v>0.4569905946943135</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.101034918314838</v>
+        <v>-1.087836767982732</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2709350101997665</v>
+        <v>-0.2757908591889791</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.007091478926352664</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6342865344985016</v>
+        <v>0.6151574801173344</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9943298010531825</v>
+        <v>-0.9802635791756789</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2114544016249348</v>
+        <v>-0.2178622334677499</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05736480300738491</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8571251435584039</v>
+        <v>0.8409741333547376</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9451527216463851</v>
+        <v>-0.9335010451009568</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1541160330741934</v>
+        <v>-0.159919441574429</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.09915809855568479</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9645928730843296</v>
+        <v>0.9496208032025175</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7719578886627458</v>
+        <v>-0.7590399137342311</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09151886663918632</v>
+        <v>-0.09575140405636387</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1306582416032688</v>
       </c>
       <c r="E89" t="n">
-        <v>1.207297177474168</v>
+        <v>1.194322537857286</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6156121433630698</v>
+        <v>-0.6013940286403607</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02834111542873976</v>
+        <v>0.02753364361951251</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1505731977251443</v>
       </c>
       <c r="E90" t="n">
-        <v>1.374404491506177</v>
+        <v>1.364093092242536</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5404936548181158</v>
+        <v>-0.5278826136182547</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04967064854148538</v>
+        <v>0.04965333433115107</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.157182007300198</v>
       </c>
       <c r="E91" t="n">
-        <v>1.453764961583036</v>
+        <v>1.444712777616436</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3251111743358149</v>
+        <v>-0.3100745696700294</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07788808932904281</v>
+        <v>0.07850195678635008</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1490463629041421</v>
       </c>
       <c r="E92" t="n">
-        <v>1.58963271811459</v>
+        <v>1.58435660601999</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2331003125810619</v>
+        <v>-0.2208969423336176</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09126567784097736</v>
+        <v>0.09184491687761601</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1257415886157279</v>
       </c>
       <c r="E93" t="n">
-        <v>1.598921004949386</v>
+        <v>1.595554178048923</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02820709552310875</v>
+        <v>-0.015964374797632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1163193401947204</v>
+        <v>0.1182412175418285</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08846905595193105</v>
       </c>
       <c r="E94" t="n">
-        <v>1.549303200188624</v>
+        <v>1.545948965441132</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1295757292343148</v>
+        <v>0.1415713289577473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1291444479950784</v>
+        <v>0.1318344466733813</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0394713421931981</v>
       </c>
       <c r="E95" t="n">
-        <v>1.542083174479218</v>
+        <v>1.540145556940897</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1868747473070237</v>
+        <v>0.1952642692235564</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1400161980659023</v>
+        <v>0.1434507077885804</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01584148547993898</v>
       </c>
       <c r="E96" t="n">
-        <v>1.507835666437957</v>
+        <v>1.509069697429057</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2776893545295882</v>
+        <v>0.2858427735779258</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05202223310870861</v>
+        <v>0.0526911912352614</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07091365449964324</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351545011807527</v>
+        <v>1.352322577253449</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2953388309367329</v>
+        <v>0.301647499574906</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03119481209565791</v>
+        <v>0.03193774912091183</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1206044707593474</v>
       </c>
       <c r="E98" t="n">
-        <v>1.287403732614524</v>
+        <v>1.290161414115043</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2488926747053921</v>
+        <v>0.254477294547767</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02688042568417272</v>
+        <v>0.02846074088195861</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1616574680469591</v>
       </c>
       <c r="E99" t="n">
-        <v>1.182890436979279</v>
+        <v>1.185692191015195</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2241286318699684</v>
+        <v>0.2270563074355877</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05845997131482842</v>
+        <v>0.06217150840285544</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1950004527360573</v>
       </c>
       <c r="E100" t="n">
-        <v>1.066101366217011</v>
+        <v>1.06918644369476</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2194223146972794</v>
+        <v>0.2240310426844478</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02345693409534372</v>
+        <v>0.02589823775248109</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.21940815261812</v>
       </c>
       <c r="E101" t="n">
-        <v>0.905253926230415</v>
+        <v>0.9083877983009248</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1870415933338816</v>
+        <v>0.1901471330602079</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01530486078580701</v>
+        <v>-0.01337511334309237</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2397356170658327</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7365757411153482</v>
+        <v>0.7385967816670982</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1529987077783903</v>
+        <v>0.1540139501116293</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03879867019034108</v>
+        <v>-0.03658087724842841</v>
       </c>
     </row>
   </sheetData>
